--- a/src/test/resources/exceldata/Add batch excel data.xlsx
+++ b/src/test/resources/exceldata/Add batch excel data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siva1\git\Team20_InnovateAThon_Phase2_LMS_UI\src\test\resources\exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB50BD2E-6D34-4090-B459-C94ECF3D3CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAC1BF8-6C3D-46D0-A210-A7ACC23CFDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{681A841C-3D04-4412-95E3-677545C4FDBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Description</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Program SDET</t>
+  </si>
+  <si>
+    <t>Automationlearners</t>
+  </si>
+  <si>
+    <t>SDETAutomation</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6C2C84-7919-4A3E-AFAB-15D6EBACC37F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,13 +501,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>12345</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
